--- a/design_patterns_week1.xlsx
+++ b/design_patterns_week1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitHub\Software-Design-Patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFA963-262F-4F5A-BB31-4A4EDF6B7E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE6B50-E962-4F76-BF4C-04D9C58ED696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Restway -  Restaurant Management System</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Paris Nikolas Sözbilir B2481.060100 — Database Design &amp; Management</t>
+  </si>
+  <si>
+    <t>GitHub: https://github.com/Melisabal04/Software-Design-Patterns</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,48 +354,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,7 +376,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,45 +755,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -791,7 +825,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -805,543 +839,543 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -1376,200 +1410,200 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5" t="s">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="7:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4" t="s">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4" t="s">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -1602,174 +1636,185 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="2" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="A5:L16"/>
-    <mergeCell ref="A17:L18"/>
-    <mergeCell ref="I19:L19"/>
+  <mergeCells count="40">
+    <mergeCell ref="M1:S2"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="F67:L68"/>
+    <mergeCell ref="F69:L70"/>
+    <mergeCell ref="F71:L72"/>
+    <mergeCell ref="F73:L74"/>
+    <mergeCell ref="F75:L76"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="G59:I60"/>
+    <mergeCell ref="G61:I62"/>
+    <mergeCell ref="G63:I64"/>
+    <mergeCell ref="J59:L60"/>
+    <mergeCell ref="J61:L62"/>
+    <mergeCell ref="J63:L64"/>
+    <mergeCell ref="A65:L66"/>
+    <mergeCell ref="A67:E68"/>
     <mergeCell ref="G57:I58"/>
     <mergeCell ref="A20:D33"/>
     <mergeCell ref="E20:H33"/>
@@ -1785,23 +1830,13 @@
     <mergeCell ref="G55:I56"/>
     <mergeCell ref="J55:L56"/>
     <mergeCell ref="J57:L58"/>
-    <mergeCell ref="J59:L60"/>
-    <mergeCell ref="J61:L62"/>
-    <mergeCell ref="J63:L64"/>
-    <mergeCell ref="A65:L66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="F67:L68"/>
-    <mergeCell ref="F69:L70"/>
-    <mergeCell ref="F71:L72"/>
-    <mergeCell ref="F73:L74"/>
-    <mergeCell ref="F75:L76"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="A5:L16"/>
+    <mergeCell ref="A17:L18"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design_patterns_week1.xlsx
+++ b/design_patterns_week1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\GitHub\Software-Design-Patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE6B50-E962-4F76-BF4C-04D9C58ED696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3624CD-581D-4CD6-9A29-D65D6C274630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="members&amp;purpose" sheetId="1" r:id="rId1"/>
+    <sheet name="use case" sheetId="2" r:id="rId2"/>
+    <sheet name="budget&amp;time_line" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -369,23 +371,23 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -411,14 +413,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,21 +445,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>3325</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Resim 1" descr="metin, ekran görüntüsü, diyagram, tasarım içeren bir resim&#10;&#10;Yapay zeka tarafından oluşturulmuş içerik yanlış olabilir.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33926F5-9AC6-FCB6-5E7C-7075D767B792}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE5B91B-C04D-49DD-ADE4-54366947989E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -479,8 +481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7996518"/>
-          <a:ext cx="3657600" cy="3947795"/>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="4884420" cy="5367126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,89 +757,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:S2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1010,54 +1012,54 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -1377,459 +1379,8 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="7:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="M1:S2"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="F67:L68"/>
-    <mergeCell ref="F69:L70"/>
-    <mergeCell ref="F71:L72"/>
-    <mergeCell ref="F73:L74"/>
-    <mergeCell ref="F75:L76"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="J59:L60"/>
-    <mergeCell ref="J61:L62"/>
-    <mergeCell ref="J63:L64"/>
-    <mergeCell ref="A65:L66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="G57:I58"/>
-    <mergeCell ref="A20:D33"/>
-    <mergeCell ref="E20:H33"/>
-    <mergeCell ref="I20:L33"/>
-    <mergeCell ref="A34:L35"/>
-    <mergeCell ref="A36:L41"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="G42:L43"/>
-    <mergeCell ref="G44:L52"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="G55:I56"/>
-    <mergeCell ref="J55:L56"/>
-    <mergeCell ref="J57:L58"/>
+  <mergeCells count="13">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="A1:L2"/>
@@ -1837,9 +1388,478 @@
     <mergeCell ref="A5:L16"/>
     <mergeCell ref="A17:L18"/>
     <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A20:D33"/>
+    <mergeCell ref="E20:H33"/>
+    <mergeCell ref="I20:L33"/>
+    <mergeCell ref="A34:L35"/>
+    <mergeCell ref="A36:L41"/>
+    <mergeCell ref="M1:S2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6CB5B4-38B4-4516-B22B-D2C13733B59F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7A074-316C-4108-9245-881C14C97205}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="L9:R10"/>
+    <mergeCell ref="G11:K12"/>
+    <mergeCell ref="L11:R12"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="G1:R2"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L3:R4"/>
+    <mergeCell ref="G5:K6"/>
+    <mergeCell ref="L5:R6"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="L7:R8"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>